--- a/BalanceSheet/TWTR_bal.xlsx
+++ b/BalanceSheet/TWTR_bal.xlsx
@@ -1765,19 +1765,19 @@
         <v>219899000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>23954000.0</v>
+        <v>194000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>20512000.0</v>
+        <v>241000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-11754000.0</v>
+        <v>162000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-14480000.0</v>
+        <v>184000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>15545000.0</v>
+        <v>161000000.0</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>150785000.0</v>
@@ -1891,7 +1891,7 @@
         <v>684697000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>662965000.0</v>
+        <v>663532000.0</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>623885000.0</v>
@@ -3111,19 +3111,19 @@
         <v>32033000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>1096778000.0</v>
+        <v>-765000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-6345000.0</v>
+        <v>-764000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-19013000.0</v>
+        <v>-760000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>-7024000.0</v>
+        <v>-1831000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>15782000.0</v>
+        <v>-1884000000.0</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>20329000.0</v>
@@ -5067,10 +5067,8 @@
           <t>Shares (Common)</t>
         </is>
       </c>
-      <c r="B36" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B36" s="0" t="n">
+        <v>798000000.0</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>795902000.0</v>
@@ -5511,10 +5509,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B39" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B39" s="0" t="n">
+        <v>-3607216000.0</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>-2990000000.0</v>
@@ -5639,10 +5635,8 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B40" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B40" s="0" t="n">
+        <v>5199071000.0</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>4485000000.0</v>
